--- a/parse_jupyter/traffic_columns_in_common.xlsx
+++ b/parse_jupyter/traffic_columns_in_common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R011846\Documents\GitHub\mimecast_log_collector\parse_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4F5DF5-0032-4F21-8477-E8C8C372FD1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE582E6-3357-4DF7-BE93-ECE449ECF200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="26595" xr2:uid="{8B76475E-4961-4DF0-80FB-6ADD7EB48B6E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>datetime</t>
   </si>
@@ -144,13 +144,157 @@
   </si>
   <si>
     <t>Delivery</t>
+  </si>
+  <si>
+    <t>The date and time that the email was received by the Mimecast MTA.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The Mimecast account code for your account</t>
+  </si>
+  <si>
+    <t>The unique ID used to track the email through the different log types</t>
+  </si>
+  <si>
+    <t>The action taken at the receipt stage</t>
+  </si>
+  <si>
+    <t>Message transfer agent</t>
+  </si>
+  <si>
+    <t>The direction of the email based on the sending and receiving domains</t>
+  </si>
+  <si>
+    <t>Information about any errors that occurred during receipt</t>
+  </si>
+  <si>
+    <t>The sender address found in the from header of the email</t>
+  </si>
+  <si>
+    <t>The source IP of the sending mail server</t>
+  </si>
+  <si>
+    <t>The internet message id of the email</t>
+  </si>
+  <si>
+    <t>The recipient of the email</t>
+  </si>
+  <si>
+    <t>The rejection code issued if the email was rejected at the receipt stage</t>
+  </si>
+  <si>
+    <t>The rejection information if the email was rejected at the receipt stage</t>
+  </si>
+  <si>
+    <t>The rejection type if the email was rejected at the receipt stage</t>
+  </si>
+  <si>
+    <t>The sender of the email</t>
+  </si>
+  <si>
+    <t>Information from Mimecast Spam scanners for messages found to be Spam</t>
+  </si>
+  <si>
+    <t>The Spam limit defined for the given sender and recipient</t>
+  </si>
+  <si>
+    <t>The Spam score the email was given</t>
+  </si>
+  <si>
+    <t>The subject of the email, limited to 50 characters</t>
+  </si>
+  <si>
+    <t>The TLS version used if the email was received using TLS</t>
+  </si>
+  <si>
+    <t>The name of the virus found on the email, if applicable</t>
+  </si>
+  <si>
+    <t>The number of attachments on the email</t>
+  </si>
+  <si>
+    <t>The filenames of all attachments on the email</t>
+  </si>
+  <si>
+    <t>The total size of all attachments on the email</t>
+  </si>
+  <si>
+    <t>The reason the email was held for review (quarantined), if applicable</t>
+  </si>
+  <si>
+    <t>The total size of the email</t>
+  </si>
+  <si>
+    <t>If the email was delivered successfully or not</t>
+  </si>
+  <si>
+    <t>The time in milliseconds that the delivery attempt took</t>
+  </si>
+  <si>
+    <t>The receipt acknowledgment message received by Mimecast from the receiving mail server</t>
+  </si>
+  <si>
+    <t>The Mimecast delivery route used</t>
+  </si>
+  <si>
+    <t>The amount of data in bytes that were delivered</t>
+  </si>
+  <si>
+    <t>If the message was delivered using TLS or not</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The count of attempts that the Mimecast </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF252931"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252931"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> has made to deliver the email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The TLS Cipher used if the email was received using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF252931"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TLS</t>
+    </r>
+  </si>
+  <si>
+    <t>Transport Layer Security</t>
+  </si>
+  <si>
+    <t>unBreve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +312,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252931"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF252931"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -192,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -200,145 +357,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,304 +713,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D4E1E1-EE7B-44AF-BA34-A70E668A23A1}">
-  <dimension ref="B1:D33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="17.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="D5" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+      <c r="D21" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="D23" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+      <c r="D25" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="D27" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="D31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="D33" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D29" xr:uid="{29EEAD8A-2A6F-4759-A585-08A1382D94BE}"/>
-  <sortState ref="D2:D16394">
-    <sortCondition ref="D2"/>
+  <autoFilter ref="A1:E34" xr:uid="{2E73ECA9-A4F9-4C89-8E26-F5287F476154}"/>
+  <sortState ref="C2:C16395">
+    <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/parse_jupyter/traffic_columns_in_common.xlsx
+++ b/parse_jupyter/traffic_columns_in_common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R011846\Documents\GitHub\mimecast_log_collector\parse_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE582E6-3357-4DF7-BE93-ECE449ECF200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0A81D-9073-4C81-BBF4-6CDD78C9428A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="26595" xr2:uid="{8B76475E-4961-4DF0-80FB-6ADD7EB48B6E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>datetime</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>The direction of the email based on the sending and receiving domains</t>
-  </si>
-  <si>
-    <t>Information about any errors that occurred during receipt</t>
   </si>
   <si>
     <t>The sender address found in the from header of the email</t>
@@ -289,12 +286,21 @@
   <si>
     <t>unBreve</t>
   </si>
+  <si>
+    <t>https://www.mimecast.com/tech-connect/documentation/tutorials/understanding-siem-logs/#</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Information about any errors that occurred during receipt or delivery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +334,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -358,10 +372,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -399,8 +414,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,19 +730,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D4E1E1-EE7B-44AF-BA34-A70E668A23A1}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="17.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="88.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -739,10 +759,13 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -755,8 +778,11 @@
       <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -770,7 +796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -782,7 +808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -791,33 +817,33 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -826,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -838,13 +864,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -858,27 +884,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -890,7 +916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -899,20 +925,20 @@
         <v>33</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -921,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -931,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -945,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -957,7 +983,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -967,7 +993,7 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -977,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -989,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1001,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1013,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1023,7 +1049,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1035,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,7 +1071,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,7 +1081,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1065,7 +1091,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,7 +1101,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1087,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1099,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1109,7 +1135,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,15 +1145,18 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E34" xr:uid="{2E73ECA9-A4F9-4C89-8E26-F5287F476154}"/>
+  <autoFilter ref="A1:F34" xr:uid="{7FD5637C-46EA-4680-9B34-95EE96B3CB1F}"/>
   <sortState ref="C2:C16395">
     <sortCondition ref="C2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.mimecast.com/tech-connect/documentation/tutorials/understanding-siem-logs/" xr:uid="{65364792-9165-4CFB-B3D0-B96716821B52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/parse_jupyter/traffic_columns_in_common.xlsx
+++ b/parse_jupyter/traffic_columns_in_common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R011846\Documents\GitHub\mimecast_log_collector\parse_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0A81D-9073-4C81-BBF4-6CDD78C9428A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49177A3-9365-4B96-B959-6F40CF0D2D4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="26595" xr2:uid="{8B76475E-4961-4DF0-80FB-6ADD7EB48B6E}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>The unique ID used to track the email through the different log types</t>
   </si>
   <si>
-    <t>The action taken at the receipt stage</t>
-  </si>
-  <si>
     <t>Message transfer agent</t>
   </si>
   <si>
@@ -177,15 +174,6 @@
   </si>
   <si>
     <t>The recipient of the email</t>
-  </si>
-  <si>
-    <t>The rejection code issued if the email was rejected at the receipt stage</t>
-  </si>
-  <si>
-    <t>The rejection information if the email was rejected at the receipt stage</t>
-  </si>
-  <si>
-    <t>The rejection type if the email was rejected at the receipt stage</t>
   </si>
   <si>
     <t>The sender of the email</t>
@@ -294,6 +282,18 @@
   </si>
   <si>
     <t>Information about any errors that occurred during receipt or delivery</t>
+  </si>
+  <si>
+    <t>The action taken at the receipt/process stage</t>
+  </si>
+  <si>
+    <t>The rejection code issued if the email was rejected at the receipt/delivery stage</t>
+  </si>
+  <si>
+    <t>The rejection information if the email was rejected at the receipt/delivery stage</t>
+  </si>
+  <si>
+    <t>The rejection type if the email was rejected at the receipt/delivery stage</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,10 +759,10 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -827,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1071,7 +1071,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/parse_jupyter/traffic_columns_in_common.xlsx
+++ b/parse_jupyter/traffic_columns_in_common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R011846\Documents\GitHub\mimecast_log_collector\parse_jupyter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49177A3-9365-4B96-B959-6F40CF0D2D4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72CD3B2-1083-4E81-A469-B4AD8934EC19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="26595" xr2:uid="{8B76475E-4961-4DF0-80FB-6ADD7EB48B6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="26592" xr2:uid="{8B76475E-4961-4DF0-80FB-6ADD7EB48B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +342,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -376,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,6 +434,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,19 +764,19 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -765,7 +796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -782,7 +813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -796,7 +827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -808,19 +839,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -833,7 +864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>11</v>
@@ -843,7 +874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -855,7 +886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -870,31 +901,31 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
         <v>17</v>
@@ -904,7 +935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -916,7 +947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -928,7 +959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -938,7 +969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -950,7 +981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
@@ -960,7 +991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -974,19 +1005,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>13</v>
@@ -996,7 +1027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
@@ -1006,43 +1037,43 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -1052,19 +1083,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -1074,8 +1105,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="12"/>
@@ -1084,8 +1115,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="12"/>
@@ -1094,8 +1125,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="12"/>
@@ -1104,42 +1135,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="12"/>
